--- a/ACG/ACG/Stage01(proto).xlsx
+++ b/ACG/ACG/Stage01(proto).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate3\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,7 +108,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="388">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -156,2652 +155,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3105,7 +458,7 @@
   <dimension ref="A1:CV10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5326,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -5628,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -6143,38 +3496,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:AX10 N1:N4 K1:K6 A1:CV1 C2:CV2 BA3:CV9 A9:AZ9 K10:CU10 F3:AZ8">
-    <cfRule type="cellIs" dxfId="72" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL5 AJ1:CV1 BS10:BS12 AY10:CV10 AN10:AO10 A9:AZ9">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
